--- a/dataset/dataset_filled_status_promo.xlsx
+++ b/dataset/dataset_filled_status_promo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wisnu\ICONNET\Project Percakapan\code\Project-Machine-Learning2\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wisnu\ICONNET\Project Percakapan\Mechine_Learning_Iconnet\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83576141-3640-4758-8C27-35E9099C4748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082D13E3-36FB-49F6-83BB-50F1CB54F808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="104">
   <si>
     <t>Mode</t>
   </si>
@@ -338,12 +338,15 @@
   <si>
     <t>Tanggal 14 September</t>
   </si>
+  <si>
+    <t>Alasan</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +361,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,13 +405,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -732,7 +745,7 @@
     <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,8 +791,11 @@
       <c r="O1" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -796,7 +812,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -813,7 +829,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -830,7 +846,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -847,7 +863,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -864,7 +880,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -881,7 +897,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -898,7 +914,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -915,7 +931,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -932,7 +948,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -976,7 +992,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1036,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1080,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1108,7 +1124,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1152,7 +1168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
